--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/modulat/11000_SSM_a94f83ae-7320-4358-a372-a683c3eece07.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/modulat/11000_SSM_a94f83ae-7320-4358-a372-a683c3eece07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-ambient/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671EF3E9-2B5C-5D42-9A2F-78CAF4F317C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BA1A55-FE19-904A-A43B-1113685CAE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41320" yWindow="1600" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -228,10 +228,10 @@
     <t>SSM</t>
   </si>
   <si>
-    <t>System Setting Management</t>
-  </si>
-  <si>
     <t>zero.ssm</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5">
         <v>11000</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>22</v>
